--- a/twomodegame.xlsx
+++ b/twomodegame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudilimantara/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6535C381-C46E-3F43-9C41-54BF07956F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9566F5F-07B0-D240-98C0-2E5374BC690E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
   <si>
     <t>Mobile Legend</t>
   </si>
@@ -266,16 +266,13 @@
   </si>
   <si>
     <t>Nama</t>
-  </si>
-  <si>
-    <t>Game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -302,6 +299,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -346,12 +350,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,10 +579,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -590,611 +590,1761 @@
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="6">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="6">
+        <v>0</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="6">
+        <v>1</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="6">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="6">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="6">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="6">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="6">
+        <v>1</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="6">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="6">
+        <v>1</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="6">
+        <v>0</v>
+      </c>
+      <c r="C75" s="6">
+        <v>0</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="6">
+        <v>0</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>35</v>
       </c>
@@ -1202,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +2360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>37</v>
       </c>
@@ -1707,7 +2857,7 @@
       <c r="B143" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B143">
+  <conditionalFormatting sqref="A77:B143">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>

--- a/twomodegame.xlsx
+++ b/twomodegame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudilimantara/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masrizal\Desktop\projek_akhir_sna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9566F5F-07B0-D240-98C0-2E5374BC690E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9891040C-13E3-49B5-870B-1262BBE392F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Game Yang SAma" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Mobile Legend</t>
   </si>
@@ -581,16 +581,16 @@
   </sheetPr>
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>81</v>
       </c>
@@ -613,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>73</v>
       </c>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>75</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>77</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>78</v>
       </c>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>79</v>
       </c>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>80</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>19</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>26</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>32</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>22</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>35</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>37</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>39</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>52</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>55</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>40</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>59</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>47</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>64</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>54</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>65</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>41</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>67</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>53</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>42</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>51</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>36</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>48</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>70</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>58</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>62</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>68</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>49</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>63</v>
       </c>
@@ -2338,522 +2338,272 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="78" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
-        <v>43</v>
-      </c>
+    <row r="81" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>46</v>
-      </c>
+    <row r="85" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="4" t="s">
-        <v>50</v>
-      </c>
+    <row r="100" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="4" t="s">
-        <v>66</v>
-      </c>
+    <row r="101" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A133" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A134" s="4" t="s">
-        <v>71</v>
-      </c>
+    <row r="117" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="4" t="s">
-        <v>49</v>
-      </c>
+    <row r="135" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>63</v>
-      </c>
+    <row r="143" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
       <c r="B143" s="1"/>
     </row>
   </sheetData>
